--- a/houz electricity.xlsx
+++ b/houz electricity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noahbarton/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noahbarton/Documents/houz_electricity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79833D9A-5EA4-CE47-A3BE-0B5E8894E855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60989A78-99D0-9642-913B-E87151878456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11140" yWindow="760" windowWidth="21320" windowHeight="19860" xr2:uid="{D235D0B4-9921-8145-B3B7-CC8C1A4F16A3}"/>
+    <workbookView xWindow="9200" yWindow="1040" windowWidth="21320" windowHeight="19400" xr2:uid="{D235D0B4-9921-8145-B3B7-CC8C1A4F16A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -451,7 +451,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -537,8 +537,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9359,7 +9359,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36F55C7E-F76E-2F4E-A8F9-28283E889B66}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36F55C7E-F76E-2F4E-A8F9-28283E889B66}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:AA76" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -10097,7 +10097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74446916-0BE6-3348-A1B3-7E1439102FED}">
   <dimension ref="A1:C1728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
       <selection activeCell="A144" sqref="A2:A144"/>
     </sheetView>
   </sheetViews>
